--- a/3o Παραδοτέο/Ερωτηματολόγιο αξιολόγησης mobile εφαρμογής E-culture (Απαντήσεις +Δημιουργία Γραφημάτων).xlsx
+++ b/3o Παραδοτέο/Ερωτηματολόγιο αξιολόγησης mobile εφαρμογής E-culture (Απαντήσεις +Δημιουργία Γραφημάτων).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Christos/Documents/LIME technology/Έργα Πληροφορικής/ΕΛ:ΛΑΚ Έργα Mobile/3o Παραδοτέο/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Christos/Documents/LIME technology/Έργα Πληροφορικής/ΕΛ:ΛΑΚ Έργα Mobile/E-CULTURE/3o Παραδοτέο/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="70">
   <si>
     <t>Χρονική σήμανση</t>
   </si>
@@ -235,6 +235,9 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Το παραδοτέο τελεί υπό την άδεια των Creative Commons (https://creativecommons.ellak.gr/)</t>
+  </si>
 </sst>
 </file>
 
@@ -435,7 +438,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$26</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -466,7 +469,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$27:$B$31</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$30:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -568,7 +571,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$44</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -599,7 +602,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$44:$F$44</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$47:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -701,7 +704,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$45</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -731,7 +734,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$45:$F$45</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$48:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -832,7 +835,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$46</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -862,7 +865,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$46:$F$46</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$49:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -963,7 +966,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$47</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -993,7 +996,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$47:$F$47</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$50:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1094,7 +1097,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$48</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1124,7 +1127,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$48:$F$48</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$51:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1225,7 +1228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$49</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1255,7 +1258,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$49:$F$49</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$52:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1356,7 +1359,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$50</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1386,7 +1389,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$50:$F$50</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$53:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1487,7 +1490,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$51</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1517,7 +1520,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$51:$F$51</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$54:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1618,7 +1621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$52</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1648,7 +1651,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$52:$F$52</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$55:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1749,7 +1752,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$53</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1779,7 +1782,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$53:$F$53</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$56:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1880,7 +1883,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$35</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1911,7 +1914,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$35:$F$35</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$38:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2013,7 +2016,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$54</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2043,7 +2046,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$54:$F$54</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$57:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2144,7 +2147,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$55</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2174,7 +2177,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$55:$F$55</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$58:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2275,7 +2278,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$56</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2305,7 +2308,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$56:$F$56</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$59:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2406,7 +2409,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$57</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2436,7 +2439,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$57:$F$57</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$60:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2537,7 +2540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$58</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2567,7 +2570,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$58:$F$58</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$61:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2668,7 +2671,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$59</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2698,7 +2701,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$59:$F$59</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$62:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2799,7 +2802,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$60</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2829,7 +2832,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$60:$F$60</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$63:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2930,7 +2933,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$61</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2960,7 +2963,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$61:$F$61</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$64:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3061,7 +3064,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$43</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3091,7 +3094,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$43:$F$43</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$46:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3181,7 +3184,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3222,9 +3224,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3270,7 +3270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3326,7 +3325,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$36</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3357,7 +3356,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$36:$F$36</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$39:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3448,7 +3447,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3489,9 +3487,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3558,7 +3554,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3603,7 +3598,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3644,9 +3638,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3704,7 +3696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3754,7 +3745,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3795,9 +3785,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3855,7 +3843,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3900,7 +3887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3941,9 +3927,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4043,7 +4027,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4099,7 +4082,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$37</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4130,7 +4113,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$37:$F$37</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$40:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4232,7 +4215,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$38</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4263,7 +4246,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$38:$F$38</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$41:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4365,7 +4348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$39</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4396,7 +4379,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$39:$F$39</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$42:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4498,7 +4481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$40</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4529,7 +4512,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$40:$F$40</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$43:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4631,7 +4614,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$41</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4662,7 +4645,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$41:$F$41</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$44:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4764,7 +4747,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$42</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4795,7 +4778,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$42:$F$42</c:f>
+              <c:f>'Απαντήσεις όλων των κατηγοριών'!$B$45:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4862,13 +4845,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>92865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1178719</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>561972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4892,13 +4875,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>45243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1226343</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4922,13 +4905,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1512095</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1250157</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>478631</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4952,13 +4935,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>21431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>869157</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>490538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4982,13 +4965,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>988218</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>116681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1214437</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5012,13 +4995,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1452563</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>69057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1250157</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5042,13 +5025,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1476376</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1214438</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>97631</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5072,13 +5055,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1476375</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>45244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>940594</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5102,13 +5085,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>988220</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>271463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1214439</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>73819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5132,13 +5115,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1389063</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>235744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1123157</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5162,13 +5145,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1428751</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>259556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>896938</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5192,13 +5175,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>315119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1083469</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5222,13 +5205,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1349376</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1146970</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>474663</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5252,13 +5235,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>203994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1139032</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>431007</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5282,13 +5265,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1535907</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>311150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1004094</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>351632</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5312,13 +5295,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>936625</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1162844</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>129382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5342,13 +5325,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1559720</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>251619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1357314</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>113506</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5372,13 +5355,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1480344</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>180181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1214438</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>42068</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5402,13 +5385,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1583532</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>61118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1051719</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>637380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5432,13 +5415,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1051719</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>219869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1277938</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>589756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5462,13 +5445,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>593725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5492,13 +5475,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1603375</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5522,13 +5505,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1539875</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>482600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5552,13 +5535,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>628650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1317625</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5582,13 +5565,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1412875</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>644525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5612,13 +5595,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1508125</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>612775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5642,13 +5625,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>692150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5672,13 +5655,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1222375</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6143,11 +6126,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI61"/>
+  <dimension ref="A1:AI64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6180,428 +6163,121 @@
     <col min="35" max="35" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>42286.692206562497</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>4</v>
-      </c>
-      <c r="R2" s="2">
-        <v>5</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2</v>
-      </c>
-      <c r="T2" s="2">
-        <v>4</v>
-      </c>
-      <c r="U2" s="2">
-        <v>4</v>
-      </c>
-      <c r="V2" s="2">
-        <v>3</v>
-      </c>
-      <c r="W2" s="2">
-        <v>2</v>
-      </c>
-      <c r="X2" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>42288.487020219909</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>4</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>5</v>
-      </c>
-      <c r="R3" s="2">
-        <v>5</v>
-      </c>
-      <c r="S3" s="2">
-        <v>3</v>
-      </c>
-      <c r="T3" s="2">
-        <v>3</v>
-      </c>
-      <c r="U3" s="2">
-        <v>4</v>
-      </c>
-      <c r="V3" s="2">
-        <v>3</v>
-      </c>
-      <c r="W3" s="2">
-        <v>4</v>
-      </c>
-      <c r="X3" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>42288.826148449079</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>4</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3</v>
-      </c>
-      <c r="O4" s="2">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2">
-        <v>5</v>
-      </c>
-      <c r="S4" s="2">
-        <v>5</v>
-      </c>
-      <c r="T4" s="2">
-        <v>2</v>
-      </c>
-      <c r="U4" s="2">
-        <v>4</v>
-      </c>
-      <c r="V4" s="2">
-        <v>5</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>42288.837608159723</v>
+        <v>42286.692206562497</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
@@ -6616,7 +6292,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -6637,61 +6313,61 @@
         <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="2">
         <v>5</v>
       </c>
       <c r="S5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T5" s="2">
         <v>4</v>
       </c>
       <c r="U5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2">
         <v>5</v>
       </c>
       <c r="Y5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="2">
         <v>5</v>
@@ -6703,45 +6379,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>42288.933933287037</v>
+        <v>42288.487020219909</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -6750,10 +6426,10 @@
         <v>4</v>
       </c>
       <c r="P6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -6768,51 +6444,48 @@
         <v>4</v>
       </c>
       <c r="V6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6" s="2">
         <v>4</v>
       </c>
       <c r="X6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB6" s="2">
         <v>3</v>
       </c>
       <c r="AC6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>42288.936974988421</v>
+        <v>42288.826148449079</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
@@ -6821,19 +6494,19 @@
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
@@ -6851,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="2">
         <v>5</v>
@@ -6860,46 +6533,46 @@
         <v>5</v>
       </c>
       <c r="Q7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" s="2">
         <v>5</v>
       </c>
       <c r="T7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z7" s="2">
         <v>5</v>
       </c>
       <c r="AA7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="2">
         <v>5</v>
       </c>
       <c r="AC7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="2">
         <v>4</v>
@@ -6916,7 +6589,7 @@
     </row>
     <row r="8" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>42288.979463240743</v>
+        <v>42288.837608159723</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
@@ -6928,19 +6601,19 @@
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -6955,19 +6628,19 @@
         <v>5</v>
       </c>
       <c r="N8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2">
         <v>3</v>
       </c>
       <c r="Q8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S8" s="2">
         <v>4</v>
@@ -6976,51 +6649,51 @@
         <v>4</v>
       </c>
       <c r="U8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2">
         <v>5</v>
       </c>
       <c r="Y8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="2">
         <v>2</v>
       </c>
       <c r="AB8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF8" s="2">
         <v>5</v>
       </c>
       <c r="AG8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>42289.000933680552</v>
+        <v>42288.933933287037</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
@@ -7032,105 +6705,108 @@
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3</v>
+      </c>
+      <c r="T9" s="2">
+        <v>3</v>
+      </c>
+      <c r="U9" s="2">
+        <v>4</v>
+      </c>
+      <c r="V9" s="2">
+        <v>4</v>
+      </c>
+      <c r="W9" s="2">
+        <v>4</v>
+      </c>
+      <c r="X9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2">
         <v>2</v>
       </c>
-      <c r="S9" s="2">
-        <v>4</v>
-      </c>
-      <c r="T9" s="2">
-        <v>3</v>
-      </c>
-      <c r="U9" s="2">
-        <v>4</v>
-      </c>
-      <c r="V9" s="2">
+      <c r="Z9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="2">
         <v>2</v>
       </c>
-      <c r="W9" s="2">
-        <v>3</v>
-      </c>
-      <c r="X9" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="2">
+      <c r="AB9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="2">
         <v>2</v>
       </c>
-      <c r="AA9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>4</v>
-      </c>
       <c r="AD9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="2">
         <v>2</v>
       </c>
       <c r="AH9" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>42289.011280277773</v>
+        <v>42288.936974988421</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -7139,13 +6815,13 @@
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
       </c>
       <c r="H10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
@@ -7160,28 +6836,28 @@
         <v>5</v>
       </c>
       <c r="M10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" s="2">
         <v>4</v>
       </c>
       <c r="O10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="2">
         <v>4</v>
       </c>
       <c r="R10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U10" s="2">
         <v>5</v>
@@ -7190,19 +6866,19 @@
         <v>2</v>
       </c>
       <c r="W10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10" s="2">
         <v>5</v>
       </c>
       <c r="Y10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z10" s="2">
         <v>5</v>
       </c>
       <c r="AA10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="2">
         <v>5</v>
@@ -7211,48 +6887,45 @@
         <v>4</v>
       </c>
       <c r="AD10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF10" s="2">
         <v>5</v>
       </c>
       <c r="AG10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="2">
         <v>5</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>42289.030582870371</v>
+        <v>42288.979463240743</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2">
         <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2">
         <v>3</v>
@@ -7270,64 +6943,64 @@
         <v>5</v>
       </c>
       <c r="N11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11" s="2">
         <v>3</v>
       </c>
       <c r="Q11" s="2">
+        <v>5</v>
+      </c>
+      <c r="R11" s="2">
+        <v>4</v>
+      </c>
+      <c r="S11" s="2">
+        <v>4</v>
+      </c>
+      <c r="T11" s="2">
+        <v>4</v>
+      </c>
+      <c r="U11" s="2">
+        <v>4</v>
+      </c>
+      <c r="V11" s="2">
+        <v>4</v>
+      </c>
+      <c r="W11" s="2">
+        <v>3</v>
+      </c>
+      <c r="X11" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="2">
         <v>2</v>
       </c>
-      <c r="R11" s="2">
-        <v>5</v>
-      </c>
-      <c r="S11" s="2">
-        <v>5</v>
-      </c>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>5</v>
-      </c>
-      <c r="V11" s="2">
-        <v>3</v>
-      </c>
-      <c r="W11" s="2">
-        <v>3</v>
-      </c>
-      <c r="X11" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="2">
+      <c r="AA11" s="2">
         <v>2</v>
       </c>
-      <c r="Z11" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
       <c r="AB11" s="2">
         <v>3</v>
       </c>
       <c r="AC11" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE11" s="2">
         <v>5</v>
       </c>
       <c r="AF11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH11" s="2">
         <v>5</v>
@@ -7335,37 +7008,37 @@
     </row>
     <row r="12" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>42289.035236041665</v>
+        <v>42289.000933680552</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
         <v>5</v>
       </c>
       <c r="K12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="2">
         <v>5</v>
@@ -7374,64 +7047,64 @@
         <v>4</v>
       </c>
       <c r="N12" s="2">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2">
         <v>2</v>
       </c>
-      <c r="O12" s="2">
-        <v>3</v>
-      </c>
-      <c r="P12" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>4</v>
-      </c>
-      <c r="R12" s="2">
-        <v>5</v>
-      </c>
       <c r="S12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2">
+        <v>3</v>
+      </c>
+      <c r="X12" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="2">
         <v>2</v>
       </c>
-      <c r="X12" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>3</v>
-      </c>
       <c r="AA12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="2">
         <v>3</v>
       </c>
       <c r="AC12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" s="2">
         <v>5</v>
       </c>
       <c r="AF12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="2">
         <v>4</v>
@@ -7439,37 +7112,37 @@
     </row>
     <row r="13" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>42289.08252142361</v>
+        <v>42289.011280277773</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
         <v>5</v>
       </c>
       <c r="J13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13" s="2">
         <v>5</v>
@@ -7493,72 +7166,75 @@
         <v>5</v>
       </c>
       <c r="S13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" s="2">
         <v>5</v>
       </c>
       <c r="V13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="2">
+        <v>3</v>
+      </c>
+      <c r="X13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="2">
         <v>2</v>
       </c>
-      <c r="X13" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>4</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>3</v>
-      </c>
       <c r="AH13" s="2">
         <v>5</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>42289.432070300929</v>
+        <v>42289.030582870371</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
@@ -7567,7 +7243,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="2">
         <v>5</v>
@@ -7579,64 +7255,64 @@
         <v>5</v>
       </c>
       <c r="M14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" s="2">
         <v>5</v>
       </c>
       <c r="T14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U14" s="2">
+        <v>5</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2">
+        <v>3</v>
+      </c>
+      <c r="X14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="2">
         <v>2</v>
       </c>
-      <c r="V14" s="2">
+      <c r="Z14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="2">
         <v>2</v>
       </c>
-      <c r="W14" s="2">
+      <c r="AD14" s="2">
         <v>2</v>
       </c>
-      <c r="X14" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>5</v>
-      </c>
       <c r="AE14" s="2">
         <v>5</v>
       </c>
       <c r="AF14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG14" s="2">
         <v>2</v>
@@ -7647,7 +7323,7 @@
     </row>
     <row r="15" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>42289.523099780097</v>
+        <v>42289.035236041665</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>35</v>
@@ -7656,94 +7332,94 @@
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="2">
         <v>5</v>
       </c>
       <c r="K15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2">
         <v>5</v>
       </c>
       <c r="M15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15" s="2">
         <v>5</v>
       </c>
       <c r="S15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U15" s="2">
         <v>5</v>
       </c>
       <c r="V15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15" s="2">
         <v>2</v>
       </c>
       <c r="X15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z15" s="2">
         <v>3</v>
       </c>
       <c r="AA15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE15" s="2">
         <v>5</v>
       </c>
       <c r="AF15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="2">
         <v>4</v>
@@ -7751,7 +7427,7 @@
     </row>
     <row r="16" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>42289.637744155094</v>
+        <v>42289.08252142361</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
@@ -7760,28 +7436,28 @@
         <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2">
         <v>5</v>
       </c>
       <c r="J16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2">
         <v>5</v>
@@ -7790,13 +7466,13 @@
         <v>5</v>
       </c>
       <c r="N16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="2">
         <v>4</v>
@@ -7808,13 +7484,13 @@
         <v>4</v>
       </c>
       <c r="T16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U16" s="2">
         <v>5</v>
       </c>
       <c r="V16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16" s="2">
         <v>2</v>
@@ -7826,25 +7502,25 @@
         <v>5</v>
       </c>
       <c r="Z16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="2">
         <v>2</v>
       </c>
       <c r="AB16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG16" s="2">
         <v>3</v>
@@ -7855,79 +7531,79 @@
     </row>
     <row r="17" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>42289.911360636572</v>
+        <v>42289.432070300929</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
       </c>
       <c r="H17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2">
         <v>5</v>
       </c>
       <c r="K17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" s="2">
         <v>4</v>
       </c>
       <c r="N17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="2">
         <v>5</v>
       </c>
       <c r="R17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" s="2">
         <v>3</v>
       </c>
       <c r="U17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="2">
         <v>4</v>
@@ -7936,13 +7612,13 @@
         <v>5</v>
       </c>
       <c r="AB17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE17" s="2">
         <v>5</v>
@@ -7951,30 +7627,30 @@
         <v>5</v>
       </c>
       <c r="AG17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>42290.49616638889</v>
+        <v>42289.523099780097</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -7983,7 +7659,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2">
         <v>5</v>
@@ -7995,16 +7671,16 @@
         <v>5</v>
       </c>
       <c r="M18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O18" s="2">
         <v>4</v>
       </c>
       <c r="P18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="2">
         <v>5</v>
@@ -8013,7 +7689,7 @@
         <v>5</v>
       </c>
       <c r="S18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T18" s="2">
         <v>3</v>
@@ -8022,10 +7698,10 @@
         <v>5</v>
       </c>
       <c r="V18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X18" s="2">
         <v>5</v>
@@ -8037,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="AA18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC18" s="2">
         <v>5</v>
@@ -8055,102 +7731,102 @@
         <v>5</v>
       </c>
       <c r="AG18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>42290.925675902778</v>
+        <v>42289.637744155094</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2">
         <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" s="2">
         <v>5</v>
       </c>
       <c r="K19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" s="2">
         <v>5</v>
       </c>
       <c r="M19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O19" s="2">
         <v>3</v>
       </c>
       <c r="P19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19" s="2">
         <v>5</v>
       </c>
       <c r="Y19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="2">
         <v>4</v>
       </c>
       <c r="AA19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="2">
         <v>3</v>
       </c>
       <c r="AC19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE19" s="2">
         <v>5</v>
@@ -8162,57 +7838,57 @@
         <v>3</v>
       </c>
       <c r="AH19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>42290.962139467592</v>
+        <v>42289.911360636572</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="2">
         <v>5</v>
       </c>
       <c r="K20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O20" s="2">
         <v>3</v>
       </c>
       <c r="P20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="2">
         <v>5</v>
@@ -8221,40 +7897,40 @@
         <v>5</v>
       </c>
       <c r="S20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" s="2">
         <v>3</v>
       </c>
       <c r="W20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X20" s="2">
         <v>5</v>
       </c>
       <c r="Y20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA20" s="2">
         <v>5</v>
       </c>
       <c r="AB20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="2">
         <v>5</v>
@@ -8266,15 +7942,15 @@
         <v>3</v>
       </c>
       <c r="AH20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>42291.493175995369</v>
+        <v>42290.49616638889</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
@@ -8286,864 +7962,1116 @@
         <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5</v>
+      </c>
+      <c r="M21" s="2">
+        <v>4</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4</v>
+      </c>
+      <c r="O21" s="2">
+        <v>4</v>
+      </c>
+      <c r="P21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>5</v>
+      </c>
+      <c r="R21" s="2">
+        <v>5</v>
+      </c>
+      <c r="S21" s="2">
+        <v>3</v>
+      </c>
+      <c r="T21" s="2">
+        <v>3</v>
+      </c>
+      <c r="U21" s="2">
+        <v>5</v>
+      </c>
+      <c r="V21" s="2">
+        <v>3</v>
+      </c>
+      <c r="W21" s="2">
+        <v>3</v>
+      </c>
+      <c r="X21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>42290.925675902778</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>4</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3</v>
+      </c>
+      <c r="O22" s="2">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5</v>
+      </c>
+      <c r="R22" s="2">
+        <v>3</v>
+      </c>
+      <c r="S22" s="2">
+        <v>3</v>
+      </c>
+      <c r="T22" s="2">
+        <v>3</v>
+      </c>
+      <c r="U22" s="2">
+        <v>3</v>
+      </c>
+      <c r="V22" s="2">
+        <v>3</v>
+      </c>
+      <c r="W22" s="2">
+        <v>3</v>
+      </c>
+      <c r="X22" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>42290.962139467592</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>5</v>
+      </c>
+      <c r="R23" s="2">
+        <v>5</v>
+      </c>
+      <c r="S23" s="2">
+        <v>5</v>
+      </c>
+      <c r="T23" s="2">
+        <v>5</v>
+      </c>
+      <c r="U23" s="2">
+        <v>5</v>
+      </c>
+      <c r="V23" s="2">
+        <v>3</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>42291.493175995369</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
         <v>2</v>
       </c>
-      <c r="J21" s="2">
-        <v>5</v>
-      </c>
-      <c r="K21" s="2">
-        <v>5</v>
-      </c>
-      <c r="L21" s="2">
-        <v>5</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2">
         <v>2</v>
       </c>
-      <c r="N21" s="2">
-        <v>4</v>
-      </c>
-      <c r="O21" s="2">
-        <v>5</v>
-      </c>
-      <c r="P21" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="N24" s="2">
+        <v>4</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+      <c r="P24" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="2">
         <v>2</v>
       </c>
-      <c r="R21" s="2">
-        <v>5</v>
-      </c>
-      <c r="S21" s="2">
-        <v>4</v>
-      </c>
-      <c r="T21" s="2">
-        <v>5</v>
-      </c>
-      <c r="U21" s="2">
-        <v>5</v>
-      </c>
-      <c r="V21" s="2">
-        <v>5</v>
-      </c>
-      <c r="W21" s="2">
+      <c r="R24" s="2">
+        <v>5</v>
+      </c>
+      <c r="S24" s="2">
+        <v>4</v>
+      </c>
+      <c r="T24" s="2">
+        <v>5</v>
+      </c>
+      <c r="U24" s="2">
+        <v>5</v>
+      </c>
+      <c r="V24" s="2">
+        <v>5</v>
+      </c>
+      <c r="W24" s="2">
         <v>1</v>
       </c>
-      <c r="X21" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="2">
+      <c r="X24" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="2">
         <v>2</v>
       </c>
-      <c r="AD21" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>5</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="F24" s="2" t="s">
+      <c r="AD24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="F27" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:35" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:35" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="S29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="U29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="W29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X26" s="5" t="s">
+      <c r="X29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y26" s="5" t="s">
+      <c r="Y29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z26" s="5" t="s">
+      <c r="Z29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AA26" s="5" t="s">
+      <c r="AA29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AB26" s="5" t="s">
+      <c r="AB29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AC26" s="6" t="s">
+      <c r="AC29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-    </row>
-    <row r="27" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+    </row>
+    <row r="30" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
         <v>1</v>
       </c>
-      <c r="B27" s="3">
-        <f>COUNTIF(G2:G21,"=1")</f>
+      <c r="B30" s="3">
+        <f>COUNTIF(G5:G24,"=1")</f>
         <v>0</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:AC27" si="0">COUNTIF(H2:H21,"=1")</f>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30:AC30" si="0">COUNTIF(H5:H24,"=1")</f>
         <v>0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J30" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L30" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O30" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q30" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R30" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U30" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V30" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W30" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+    <row r="31" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="3">
-        <f>COUNTIF(G2:G21,"=2")</f>
+      <c r="B31" s="3">
+        <f>COUNTIF(G5:G24,"=2")</f>
         <v>0</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28:AC28" si="1">COUNTIF(H2:H21,"=2")</f>
+      <c r="C31" s="3">
+        <f t="shared" ref="C31:AC31" si="1">COUNTIF(H5:H24,"=2")</f>
         <v>0</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G31" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H31" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J31" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L31" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O31" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q31" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R31" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S31" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T31" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U31" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V31" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W31" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X31" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z31" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA31" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AB31" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AC31" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3">
-        <f>COUNTIF(G2:G21,"=3")</f>
+    <row r="32" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <f>COUNTIF(G5:G24,"=3")</f>
         <v>0</v>
       </c>
-      <c r="C29" s="3">
-        <f t="shared" ref="C29:AC29" si="2">COUNTIF(H2:H21,"=3")</f>
+      <c r="C32" s="3">
+        <f t="shared" ref="C32:AC32" si="2">COUNTIF(H5:H24,"=3")</f>
         <v>0</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D32" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H32" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I32" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J32" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K32" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L32" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N32" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O32" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q32" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R32" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S32" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T32" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U32" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V32" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W32" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X32" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y32" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB32" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3">
-        <f>COUNTIF(G2:G21,"=4")</f>
-        <v>4</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:AC30" si="3">COUNTIF(H2:H21,"=4")</f>
+    <row r="33" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <f>COUNTIF(G5:G24,"=4")</f>
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:AC33" si="3">COUNTIF(H5:H24,"=4")</f>
         <v>6</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D33" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E33" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F33" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G33" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H33" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I33" s="3">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J33" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K33" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L33" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M33" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N33" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O33" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P33" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q33" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R33" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S33" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T33" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U33" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V33" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W33" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X33" s="3">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y33" s="3">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z33" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA33" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AB33" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AC33" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3">
-        <f>COUNTIF(G2:G21,"=5")</f>
+    <row r="34" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <f>COUNTIF(G5:G24,"=5")</f>
         <v>16</v>
       </c>
-      <c r="C31" s="3">
-        <f t="shared" ref="C31:AC31" si="4">COUNTIF(H2:H21,"=5")</f>
+      <c r="C34" s="3">
+        <f t="shared" ref="C34:AC34" si="4">COUNTIF(H5:H24,"=5")</f>
         <v>14</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D34" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E34" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F34" s="3">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G34" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H34" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I34" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J34" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K34" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L34" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M34" s="3">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N34" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O34" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P34" s="3">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q34" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R34" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S34" s="3">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T34" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U34" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V34" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W34" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X34" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y34" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="Z34" s="3">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="AA34" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AB34" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AC34" s="3">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="8">
+    <row r="36" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C36" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="8">
-        <v>3</v>
-      </c>
-      <c r="E33" s="8">
-        <v>4</v>
-      </c>
-      <c r="F33" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="str">
-        <f t="array" ref="A34:F61">TRANSPOSE(B26:AC31)</f>
+      <c r="D36" s="8">
+        <v>3</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4</v>
+      </c>
+      <c r="F36" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="str">
+        <f t="array" ref="A37:F64">TRANSPOSE(B29:AC34)</f>
         <v>Οι ερωτήσεις είναι επιστημονικά ακριβείς</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>4</v>
-      </c>
-      <c r="F34" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="str">
-        <v xml:space="preserve">Είναι σε αρμονία με το πολιτισμικό πλαίσιο της Παιδείας μας </v>
-      </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>6</v>
-      </c>
-      <c r="F35" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="str">
-        <v>Θεωρώ ότι το περιεχομένο της εφαρμογής εμφανίζεται στη βάση του πλέγματος των διαθεματικών εννοιών</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="str">
-        <v>Οι ερωτήσεις είναι σαφείς και κατανοητές</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -9152,78 +9080,78 @@
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="str">
-        <v>Οι ερωτήσεις είναι ευανάγνωστες με ορθολογική χρήση γραμματοσειρών, χρωμάτων και συμβόλων</v>
+        <v xml:space="preserve">Είναι σε αρμονία με το πολιτισμικό πλαίσιο της Παιδείας μας </v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F38" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="str">
-        <v>Υπάρχει γραμματική και συντακτική συνέπεια</v>
+        <v>Θεωρώ ότι το περιεχομένο της εφαρμογής εμφανίζεται στη βάση του πλέγματος των διαθεματικών εννοιών</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="str">
-        <v>Παρέχεται η δυνατότητα αξιολόγησης και αυτοαξιολόγησης του χρήστη</v>
+        <v>Οι ερωτήσεις είναι σαφείς και κατανοητές</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="str">
-        <v xml:space="preserve">Παρέχεται η δυνατότητα πολλαπλών αναπαραστάσεων φαινομένων και εννοιών </v>
+        <v>Οι ερωτήσεις είναι ευανάγνωστες με ορθολογική χρήση γραμματοσειρών, χρωμάτων και συμβόλων</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -9232,98 +9160,98 @@
         <v>1</v>
       </c>
       <c r="D41" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E41" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F41" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="str">
-        <v>Θεωρώ ότι θα έπρεπε να αναφέρονται οι προαπαιτούμενες γνώσεις και δεξιότητες για την αποτελεσματική χρήση της εφαρμογής</v>
+        <v>Υπάρχει γραμματική και συντακτική συνέπεια</v>
       </c>
       <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>2</v>
       </c>
-      <c r="C42" s="3">
-        <v>3</v>
-      </c>
-      <c r="D42" s="3">
-        <v>6</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5</v>
-      </c>
       <c r="F42" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="str">
-        <v>Η αλληλεπίδραση ξεφεύγει από τα όρια της απλής πλοήγησης, υπάρχει διάδραση</v>
+        <v>Παρέχεται η δυνατότητα αξιολόγησης και αυτοαξιολόγησης του χρήστη</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
       </c>
       <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="str">
+        <v xml:space="preserve">Παρέχεται η δυνατότητα πολλαπλών αναπαραστάσεων φαινομένων και εννοιών </v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
         <v>1</v>
       </c>
-      <c r="D43" s="3">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="str">
-        <v>Πώς αξιολογείς τη χρήση γραφικών και πολυμέσων;</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="str">
+        <v>Θεωρώ ότι θα έπρεπε να αναφέρονται οι προαπαιτούμενες γνώσεις και δεξιότητες για την αποτελεσματική χρήση της εφαρμογής</v>
+      </c>
+      <c r="B45" s="3">
         <v>2</v>
       </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>7</v>
-      </c>
-      <c r="F44" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="str">
-        <v>Πώς αξιολογείς το γεγονός ότι κάθε φορά που ο χρήστης επαναλαμβάνει το ίδιο τμήμα του παιχνιδιού οι ερωτήσεις παρουσιάζονται με διαφορετική σειρα;</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
       <c r="C45" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E45" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="str">
-        <v>Θεωρώ ότι θα έπρεπε να υπάρχει η επιλογή της πλοήγησης σε προηγούμενες και επόμενες ερωτήσεις</v>
+        <v>Η αλληλεπίδραση ξεφεύγει από τα όρια της απλής πλοήγησης, υπάρχει διάδραση</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -9332,38 +9260,38 @@
         <v>1</v>
       </c>
       <c r="D46" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E46" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="str">
-        <v>Θεωρώ ότι η ροή του παιχνιδιού δε θα έπρεπε να ελέγχεται από το χρήστη αλλά από εντολές χρόνου</v>
+        <v>Πώς αξιολογείς τη χρήση γραφικών και πολυμέσων;</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:29" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="str">
-        <v>Η ανατροφοδότηση (επιστροφή της πληροφορίας σχετικά με σωστή ή λανθασμένη απάντηση και εμφάνιση της σωστής σε περίπτωση λάθους) είναι εποικοδομητική και υποστηρικτική</v>
+        <v>Πώς αξιολογείς το γεγονός ότι κάθε φορά που ο χρήστης επαναλαμβάνει το ίδιο τμήμα του παιχνιδιού οι ερωτήσεις παρουσιάζονται με διαφορετική σειρα;</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
@@ -9375,255 +9303,255 @@
         <v>1</v>
       </c>
       <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="str">
+        <v>Θεωρώ ότι θα έπρεπε να υπάρχει η επιλογή της πλοήγησης σε προηγούμενες και επόμενες ερωτήσεις</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>6</v>
+      </c>
+      <c r="E49" s="3">
         <v>7</v>
       </c>
-      <c r="F48" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="str">
-        <v>Θεωρώ ότι η σωστή απάντηση θα έπρεπε να εμφανίζεται μόνο αφού το ζητήσει ο χρήστης</v>
-      </c>
-      <c r="B49" s="3">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="F49" s="3">
         <v>6</v>
       </c>
-      <c r="D49" s="3">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3">
+    </row>
+    <row r="50" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="str">
+        <v>Θεωρώ ότι η ροή του παιχνιδιού δε θα έπρεπε να ελέγχεται από το χρήστη αλλά από εντολές χρόνου</v>
+      </c>
+      <c r="B50" s="3">
         <v>2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="C50" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="str">
-        <v>Θεωρώ ότι θα έπρεπε να παρέχεται η δυνατότητα περισσότερων της μιας προσπαθειών για κάθε ερώτηση</v>
-      </c>
-      <c r="B50" s="3">
-        <v>4</v>
-      </c>
-      <c r="C50" s="3">
-        <v>7</v>
-      </c>
       <c r="D50" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="str">
-        <v>Πώς αξιολογείς ότι οι ερωτήσεις του παιχνιδιού είναι χωρισμένες σε κατηγορίες;</v>
+        <v>Η ανατροφοδότηση (επιστροφή της πληροφορίας σχετικά με σωστή ή λανθασμένη απάντηση και εμφάνιση της σωστής σε περίπτωση λάθους) είναι εποικοδομητική και υποστηρικτική</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
       </c>
       <c r="C51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F51" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="str">
-        <v xml:space="preserve">Θεωρώ ότι θα έπρεπε να περιλαμβάνεται περιγραφή για κάθε κατηγορία ερωτήσεων </v>
+        <v>Θεωρώ ότι η σωστή απάντηση θα έπρεπε να εμφανίζεται μόνο αφού το ζητήσει ο χρήστης</v>
       </c>
       <c r="B52" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D52" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
       </c>
       <c r="F52" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="str">
-        <v>Θεωρώ ότι θα ήταν χρήσιμο να παρέχεται η δυνατότητα στο χρήστη (π.χ. εκπαιδευτικό) να προσθέτει δικές του ερωτήσεις στην εφαρμογή</v>
+        <v>Θεωρώ ότι θα έπρεπε να παρέχεται η δυνατότητα περισσότερων της μιας προσπαθειών για κάθε ερώτηση</v>
       </c>
       <c r="B53" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D53" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="str">
-        <v>Θεωρώ ότι το εκάστοτε τρέχον συνολικό σκορ του χρήστη θα έπρεπε να αναφέρεται σε κάθε ερώτηση</v>
+        <v>Πώς αξιολογείς ότι οι ερωτήσεις του παιχνιδιού είναι χωρισμένες σε κατηγορίες;</v>
       </c>
       <c r="B54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
       </c>
       <c r="E54" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="str">
-        <v>Θεωρώ ότι θα έπρεπε να υπάρχουν αρχικές οδηγίες χρήσης για το παιχνίδι</v>
+        <v xml:space="preserve">Θεωρώ ότι θα έπρεπε να περιλαμβάνεται περιγραφή για κάθε κατηγορία ερωτήσεων </v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="str">
+        <v>Θεωρώ ότι θα ήταν χρήσιμο να παρέχεται η δυνατότητα στο χρήστη (π.χ. εκπαιδευτικό) να προσθέτει δικές του ερωτήσεις στην εφαρμογή</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3">
+        <v>5</v>
+      </c>
+      <c r="F56" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="str">
+    <row r="57" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="str">
+        <v>Θεωρώ ότι το εκάστοτε τρέχον συνολικό σκορ του χρήστη θα έπρεπε να αναφέρεται σε κάθε ερώτηση</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="str">
+        <v>Θεωρώ ότι θα έπρεπε να υπάρχουν αρχικές οδηγίες χρήσης για το παιχνίδι</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="str">
         <v>Πώς κρίνεις την ποιότητα του επιπέδου σχεδίασης;</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="E56" s="3">
-        <v>6</v>
-      </c>
-      <c r="F56" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="str">
-        <v>Πώς κρίνεις την οργάνωση του παραθύρου;</v>
-      </c>
-      <c r="B57" s="3">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6</v>
-      </c>
-      <c r="F57" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="str">
-        <v>Πώς κρίνεις την εφαρμογή ως προς την χρηστικότητά της;</v>
-      </c>
-      <c r="B58" s="3">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="str">
-        <v>Πώς κρίνεις την εφαρμογή ως προς την αποδοτικότητα της;</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="C59" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F59" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="str">
-        <v>Πώς αξιολογείς το επίπεδο δυσκολίας των ερωτήσεων;</v>
+        <v>Πώς κρίνεις την οργάνωση του παραθύρου;</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6</v>
+      </c>
+      <c r="F60" s="3">
         <v>8</v>
       </c>
-      <c r="D60" s="3">
-        <v>11</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="str">
-        <v>Πιστεύεις ότι θα μπορούσε να χρησιμοποιηθεί από μαθητές της δευτεροβάθμιας εκπαίδευσης  και να συμβάλλει στην εκμάθηση του πολιτισμού της Ηπείρου;</v>
+        <v>Πώς κρίνεις την εφαρμογή ως προς την χρηστικότητά της;</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -9638,6 +9566,66 @@
         <v>5</v>
       </c>
       <c r="F61" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="str">
+        <v>Πώς κρίνεις την εφαρμογή ως προς την αποδοτικότητα της;</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="str">
+        <v>Πώς αξιολογείς το επίπεδο δυσκολίας των ερωτήσεων;</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="str">
+        <v>Πιστεύεις ότι θα μπορούσε να χρησιμοποιηθεί από μαθητές της δευτεροβάθμιας εκπαίδευσης  και να συμβάλλει στην εκμάθηση του πολιτισμού της Ηπείρου;</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>5</v>
+      </c>
+      <c r="F64" s="3">
         <v>14</v>
       </c>
     </row>
